--- a/sample-case-study/requirements-user-stories.xlsx
+++ b/sample-case-study/requirements-user-stories.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\training\siemens-ooad-uml-25thaugust\sample-case-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F62F87-CB6C-400E-8C3E-CC4A616A6E0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D8C2D-35DF-4CB8-A031-8F53F9B57580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{437D39B8-3632-4653-8420-8DC4052E9997}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="1" xr2:uid="{437D39B8-3632-4653-8420-8DC4052E9997}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,22 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
-  <si>
-    <t>creating a note</t>
-  </si>
-  <si>
-    <t>editing a note</t>
-  </si>
-  <si>
-    <t>attach image</t>
-  </si>
-  <si>
-    <t>attach photo</t>
-  </si>
-  <si>
-    <t>deleting a note</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>the note should be password protected</t>
   </si>
@@ -112,13 +98,91 @@
   </si>
   <si>
     <t>Non-functional Requirements</t>
+  </si>
+  <si>
+    <t>Sl. No.</t>
+  </si>
+  <si>
+    <t>Notes should be password-protected for privacy</t>
+  </si>
+  <si>
+    <t>The app should automatically sync with cloud storage services to prevent data loss</t>
+  </si>
+  <si>
+    <t>Non-functional requirements</t>
+  </si>
+  <si>
+    <t>The app should be easy to use and intuitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The app should be able to handle a large number of notes without crashing</t>
+  </si>
+  <si>
+    <t>The app must run on the latest version of iOS/Android</t>
+  </si>
+  <si>
+    <t>The app must be secure to protect the user's privacy</t>
+  </si>
+  <si>
+    <t>Epic: Note creation and editing</t>
+  </si>
+  <si>
+    <t>As a user, I want to create text-based notes to capture my thoughts.</t>
+  </si>
+  <si>
+    <t>As a user, I want to secure sensitive notes with a password so that they remain secure and private</t>
+  </si>
+  <si>
+    <t>Users can create text-based notes</t>
+  </si>
+  <si>
+    <t>Users can edit text-based nodes</t>
+  </si>
+  <si>
+    <t>As a user, I want to edit my notes so that I can refine them over time</t>
+  </si>
+  <si>
+    <t>User Story# 1</t>
+  </si>
+  <si>
+    <t>User Story# 2</t>
+  </si>
+  <si>
+    <t>User Story# 3</t>
+  </si>
+  <si>
+    <t>Epic: Security/Password Protection</t>
+  </si>
+  <si>
+    <t>Epic: Syncing with the Cloud</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>A note may also include images or photos or hand-drawn sketches</t>
+  </si>
+  <si>
+    <t>As a user, I want to include images or photos or hand-drawn sketches in my notes so I can consolidate my memories</t>
+  </si>
+  <si>
+    <t>As a user, I want to create private notes, so that only I can access them</t>
+  </si>
+  <si>
+    <t>As a user, I want to sync all my notes across my iOs/Android devices, so that my data is up-to-date on all of them</t>
+  </si>
+  <si>
+    <t>As a user, I want my notes to automatically upload to cloud servers (Dropbox, iCloud server or Google Drive), so I always have a backup of my  information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,16 +197,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -150,24 +258,152 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7310D4CB-D6A3-4744-A6D5-D4A1856B0FEB}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,14 +733,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2"/>
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="11"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -526,10 +762,10 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -554,14 +790,12 @@
     </row>
     <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -585,14 +819,12 @@
     </row>
     <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -616,11 +848,9 @@
     </row>
     <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -645,14 +875,12 @@
     </row>
     <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -676,14 +904,12 @@
     </row>
     <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -733,10 +959,10 @@
     <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -760,13 +986,13 @@
     <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -791,10 +1017,10 @@
     <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="11"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -818,13 +1044,13 @@
     <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -849,10 +1075,10 @@
     <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -876,13 +1102,13 @@
     <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -930,11 +1156,11 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -959,7 +1185,7 @@
     <row r="18" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -986,7 +1212,7 @@
     <row r="19" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1372,4 +1598,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC214278-8827-461F-85B2-6FD5D6005508}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="69.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>3</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>